--- a/Processes/Quality Management/COSO/Risk Management/Risk Report.xlsx
+++ b/Processes/Quality Management/COSO/Risk Management/Risk Report.xlsx
@@ -3,18 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B555338-1A2C-47AE-A8BC-0B0F3E5D6282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588BEA5-B236-4234-9C3E-B1D5456B735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="masterfile" sheetId="4" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +22,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -95,9 +91,6 @@
     <t xml:space="preserve">Loss of source code </t>
   </si>
   <si>
-    <t xml:space="preserve">Avoiding: Store source code in cloud (github). At least one local developer PC and project server. </t>
-  </si>
-  <si>
     <t xml:space="preserve">yes </t>
   </si>
   <si>
@@ -116,45 +109,27 @@
     <t xml:space="preserve">Source code leak </t>
   </si>
   <si>
-    <t xml:space="preserve">Controlling: The programming language is compiled at runtime. The value of the software lies in the updates, support and licenses. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Many companies transferred the revenue model to subscriptions (e.g. Adobe, Microsoft) in order to avoid similar problems. </t>
   </si>
   <si>
     <t xml:space="preserve">User acquires additional permissions without authorization (every software which uses permissions) </t>
   </si>
   <si>
-    <t xml:space="preserve">Avoiding: Permissions can only be granted by users which have received the permissions to do so. Users which can change permissions may also only have the permission to change specific users/permissions (single application elements, not the whole application.). We provide a documentation on who to manage permissions incl. best practices. Customers with a maintenance contract also receive additional advice based on their account permission handling. We also check regularly if features can be used by default without the necessary permissions. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The consequences or severities depend on the permissions which can be acquired. </t>
   </si>
   <si>
     <t xml:space="preserve">User code execution (every software which allows data upload/input) </t>
   </si>
   <si>
-    <t xml:space="preserve">Avoiding: User provided code is a critical part of some modules (e.g. Helper, Job). These modules provided by OMS execute code user code in iframes. We provide guidelines regarding this sensitive topic which explains that only developers in a company should have access to such functionalities. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Data leak (e.g. database data, file uploads) (every software which stores data) </t>
   </si>
   <si>
-    <t xml:space="preserve">Avoiding: We regularly check if users have access to data without the necessary permissions. Our modules may use encryption for extremely sensitive data. Media files are only accessible through the media module which allows to check the necessary reading permissions. We also provide a general policy for customers who to secure and maintain their servers. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This is a big problem for almost every company working with data. The biggest known leaks happened among others to Adobe, ebay, Equifax, LinkedIn, Yahoo, ... </t>
   </si>
   <si>
     <t xml:space="preserve">Corrupt/malicious data injection (every software which accepts data input) </t>
   </si>
   <si>
-    <t xml:space="preserve">Avoiding: Data is validated client side (minimal protection) and server side. Generally, user input is only accepted if it matches the specified allowed format. Data is usually not sanitized to avoid mistakes during the sanitizing process. Database query statements are prepared and encoded. </t>
-  </si>
-  <si>
-    <t>Risks</t>
-  </si>
-  <si>
     <t>EV</t>
   </si>
   <si>
@@ -207,6 +182,75 @@
   </si>
   <si>
     <t>Other Risk</t>
+  </si>
+  <si>
+    <t>Abbreviations</t>
+  </si>
+  <si>
+    <t>R: Responsible</t>
+  </si>
+  <si>
+    <t>L: Likelihood (1-5)</t>
+  </si>
+  <si>
+    <t>C: Consequence (1-5)</t>
+  </si>
+  <si>
+    <t>O: Occurrence (many times a day, daily, weekly, monthly, annually)</t>
+  </si>
+  <si>
+    <t>ES: Effective</t>
+  </si>
+  <si>
+    <t>EY: Efficient</t>
+  </si>
+  <si>
+    <t>EV: Expected value</t>
+  </si>
+  <si>
+    <t>L*/C*: Likelihood and Consequence after mitigation</t>
+  </si>
+  <si>
+    <t>EV* TEUR</t>
+  </si>
+  <si>
+    <t>EV*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store source code in cloud (github). At least one local developer PC and project server. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permissions can only be granted by users which have received the permissions to do so. Users which can change permissions may also only have the permission to change specific users/permissions (single application elements, not the whole application.). We provide a documentation on who to manage permissions incl. best practices. Customers with a maintenance contract also receive additional advice based on their account permission handling. We also check regularly if features can be used by default without the necessary permissions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User provided code is a critical part of some modules (e.g. Helper, Job). These modules provided by OMS execute code user code in iframes. We provide guidelines regarding this sensitive topic which explains that only developers in a company should have access to such functionalities. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We regularly check if users have access to data without the necessary permissions. Our modules may use encryption for extremely sensitive data. Media files are only accessible through the media module which allows to check the necessary reading permissions. We also provide a general policy for customers who to secure and maintain their servers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data is validated client side (minimal protection) and server side. Generally, user input is only accepted if it matches the specified allowed format. Data is usually not sanitized to avoid mistakes during the sanitizing process. Database query statements are prepared and encoded. </t>
+  </si>
+  <si>
+    <t>Preventing</t>
+  </si>
+  <si>
+    <t>Revealing</t>
+  </si>
+  <si>
+    <t>Market Risk</t>
+  </si>
+  <si>
+    <t>Most code is compiled at runtime. The value of the software lies in the updates, support and licenses. The pre-compiled software solutions are stored in protected storages where only authorized personnel has access.</t>
+  </si>
+  <si>
+    <t>Risk Levels</t>
+  </si>
+  <si>
+    <t>Risk Categories</t>
+  </si>
+  <si>
+    <t>EV in TEUR</t>
   </si>
 </sst>
 </file>
@@ -214,8 +258,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -293,17 +337,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -324,23 +368,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Prozent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFF4F4F"/>
+      <color rgb="FF63BE7B"/>
     </mruColors>
   </colors>
   <extLst>
@@ -357,7 +411,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -374,11 +428,31 @@
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
               <a:t>Net Risks</a:t>
             </a:r>
           </a:p>
@@ -397,11 +471,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$B$2</c:f>
+              <c:f>Overview!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Risks</c:v>
+                  <c:v>EV in TEUR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -428,346 +502,56 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.6858359957401494E-2"/>
-                  <c:y val="-7.722006156931885E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:strRef>
-                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$8</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>BauG-Gasnotstand</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7C216F94-3736-4038-9E65-4211DFD81483}</c15:txfldGUID>
-                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$8</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>BauG-Gasnotstand</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-460E-4602-AD67-885E374A96DC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.9818956336528223E-2"/>
-                  <c:y val="-5.1480041046212252E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:strRef>
-                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$9</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SWH-Marktrisiko Energiebeschaffung</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{302E87CE-6F14-4DDF-8643-8E40082AC4BB}</c15:txfldGUID>
-                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$9</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SWH-Marktrisiko Energiebeschaffung</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-460E-4602-AD67-885E374A96DC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.1118210862619806E-2"/>
-                  <c:y val="-3.0888024627727377E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:strRef>
-                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$16</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>SWH-kein Zugang zu Finanzmitteln bei Liquiditätsengpässen</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{58707E08-3D5E-4088-8BFC-0B0387716EF9}</c15:txfldGUID>
-                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$16</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>SWH-kein Zugang zu Finanzmitteln bei Liquiditätsengpässen</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-460E-4602-AD67-885E374A96DC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="69"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.2779552715654847E-2"/>
-                  <c:y val="-3.0888024627727446E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:strRef>
-                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$72</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>HSB-Steigende Kraftstoffpreise</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7704EA4B-5882-4A9A-B390-7081A197838C}</c15:txfldGUID>
-                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$72</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>HSB-Steigende Kraftstoffpreise</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-460E-4602-AD67-885E374A96DC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="104"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.839900603478868E-2"/>
-                  <c:y val="-3.8610030784659188E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:strRef>
-                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$107</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>Klinikum-fehlendes Fachpersonal</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B33AC801-6B23-4225-85F6-21E38EDE521E}</c15:txfldGUID>
-                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$107</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>Klinikum-fehlendes Fachpersonal</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-460E-4602-AD67-885E374A96DC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="134"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.4018459353922609E-2"/>
-                  <c:y val="-5.1480041046212281E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:strRef>
-                  <c:f>'[1]Meldungen GesellschaftenAuswert'!$K$137</c:f>
-                  <c:strCache>
-                    <c:ptCount val="1"/>
-                    <c:pt idx="0">
-                      <c:v>BHG (Einzel)-unzureichende Konzernliquidität</c:v>
-                    </c:pt>
-                  </c:strCache>
-                </c:strRef>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable>
-                    <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4EB9F81F-7895-4B1F-B794-8AA47905C765}</c15:txfldGUID>
-                      <c15:f>'[1]Meldungen GesellschaftenAuswert'!$K$137</c15:f>
-                      <c15:dlblFieldTableCache>
-                        <c:ptCount val="1"/>
-                        <c:pt idx="0">
-                          <c:v>BHG (Einzel)-unzureichende Konzernliquidität</c:v>
-                        </c:pt>
-                      </c15:dlblFieldTableCache>
-                    </c15:dlblFTEntry>
-                  </c15:dlblFieldTable>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-460E-4602-AD67-885E374A96DC}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Register!$O$2:$O$13</c:f>
+              <c:f>Register!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Register!$Q$2:$Q$1000</c:f>
+              <c:f>Register!$Q$2:$Q$998</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="999"/>
-                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
-                  <c:v>250</c:v>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="997"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,11 +602,31 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr/>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
                   <a:t>Likelihood (%)</a:t>
                 </a:r>
               </a:p>
@@ -858,11 +662,31 @@
               <a:bodyPr rot="-5400000" vert="horz"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr/>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
                   <a:t>Consequence in TEUR</a:t>
                 </a:r>
               </a:p>
@@ -911,6 +735,15 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -922,7 +755,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -940,7 +773,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Risks</c:v>
+              <c:v>Risk Categories</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -970,7 +803,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -984,7 +817,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$C$2</c:f>
+              <c:f>Overview!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1095,7 +928,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$B$3:$B$7</c:f>
+              <c:f>Overview!$B$4:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1118,15 +951,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$C$3:$C$7</c:f>
+              <c:f>Overview!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1151,7 +984,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$D$2</c:f>
+              <c:f>Overview!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1262,7 +1095,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$B$3:$B$7</c:f>
+              <c:f>Overview!$B$4:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1285,15 +1118,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$D$3:$D$7</c:f>
+              <c:f>Overview!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1360,7 +1193,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1397,7 +1230,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1411,7 +1244,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1429,7 +1262,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Risks</c:v>
+              <c:v>Risk Categories</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -1459,7 +1292,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1473,7 +1306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$G$2</c:f>
+              <c:f>Overview!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1588,7 +1421,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$F$3:$F$7</c:f>
+              <c:f>Overview!$F$4:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1611,7 +1444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$G$3:$G$7</c:f>
+              <c:f>Overview!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1619,16 +1452,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,7 +1477,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overview!$H$2</c:f>
+              <c:f>Overview!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1759,7 +1592,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Overview!$F$3:$F$7</c:f>
+              <c:f>Overview!$F$4:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1782,24 +1615,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overview!$H$3:$H$7</c:f>
+              <c:f>Overview!$H$4:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,7 +1690,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1894,12 +1727,1300 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Gross Risks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV in TEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Register!$E$2:$E$999</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Register!$G$2:$G$999</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FBA-4A95-A5BB-9F45C78A49C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="279770624"/>
+        <c:axId val="302891008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="279770624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Likelihood (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="302891008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="302891008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Consequence in TEUR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:prstDash val="sysDash"/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="279770624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="C00000"/>
+            </a:gs>
+            <a:gs pos="60000">
+              <a:srgbClr val="FF4F4F"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="00B050"/>
+            </a:gs>
+            <a:gs pos="10000">
+              <a:srgbClr val="79CF2A"/>
+            </a:gs>
+            <a:gs pos="25000">
+              <a:srgbClr val="FFF200"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="18000000" scaled="0"/>
+          <a:tileRect/>
+        </a:gradFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Overview!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Risk Categories</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Operational Risk </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Financial Risk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compliance Risk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Strategic Risk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other Risk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Market Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A413-475A-A905-AAA173FC516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF4F4F"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$B$4:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Operational Risk </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Financial Risk</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Compliance Risk</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Strategic Risk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other Risk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Market Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A413-475A-A905-AAA173FC516B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="699642976"/>
+        <c:axId val="699659616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="699642976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699659616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699659616"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV in TEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699642976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Overview!$B$2</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Risk Categories</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Net</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$F$4:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>very low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>high</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>very high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B22D-4704-8A67-2CF41497B49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF4F4F"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$F$4:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>very low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>high</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>very high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B22D-4704-8A67-2CF41497B49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="699642976"/>
+        <c:axId val="699659616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="699642976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699659616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="699659616"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV in TEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699642976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1982,6 +3103,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2988,6 +4189,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3026,14 +5233,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3064,13 +5271,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>517524</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>431057</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3098,16 +5305,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3134,153 +5341,123 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32A0246-4436-48F1-BAA6-81E4F2B6931B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10158</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2A2A28-7B27-E6E4-4909-DF64024967C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD1442E-D9C2-4829-B3A8-314392F9F150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Auswertung"/>
-      <sheetName val="Auswertung 2"/>
-      <sheetName val="Meldungen GesellschaftenAuswert"/>
-      <sheetName val="BHG"/>
-      <sheetName val="BHG-Daten"/>
-      <sheetName val="SWH"/>
-      <sheetName val="SWH-Daten"/>
-      <sheetName val="HNG"/>
-      <sheetName val="HNG-Daten"/>
-      <sheetName val="HBG"/>
-      <sheetName val="HBG-Daten"/>
-      <sheetName val="HHG"/>
-      <sheetName val="HHG-Daten"/>
-      <sheetName val="HSB"/>
-      <sheetName val="HSB-Daten"/>
-      <sheetName val="HFG"/>
-      <sheetName val="HFG-Daten"/>
-      <sheetName val="BauG"/>
-      <sheetName val="BauG-Daten"/>
-      <sheetName val="HPG"/>
-      <sheetName val="HPG-Daten"/>
-      <sheetName val="HEMG"/>
-      <sheetName val="HEMG-Daten"/>
-      <sheetName val="BauPro"/>
-      <sheetName val="BauPro-Daten"/>
-      <sheetName val="BFG"/>
-      <sheetName val="BFG-Daten"/>
-      <sheetName val="HMG"/>
-      <sheetName val="HMG-Daten"/>
-      <sheetName val="HLNO"/>
-      <sheetName val="HLNO-Daten"/>
-      <sheetName val="KHG"/>
-      <sheetName val="KHG-Daten"/>
-      <sheetName val="NSG"/>
-      <sheetName val="NSG-Daten"/>
-      <sheetName val="MVZ"/>
-      <sheetName val="MVZ-Daten"/>
-      <sheetName val="TGZ"/>
-      <sheetName val="TGZ-Daten"/>
-      <sheetName val="BGBA"/>
-      <sheetName val="BGBA-Daten"/>
-      <sheetName val="HWG"/>
-      <sheetName val="HWG-Daten"/>
-      <sheetName val="PWG"/>
-      <sheetName val="PWG-Daten"/>
-      <sheetName val="HEG"/>
-      <sheetName val="HEG-Daten"/>
-      <sheetName val="Konzernebene"/>
-      <sheetName val="KernDatenGesellschaften"/>
-      <sheetName val="Statistische Daten"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="8">
-          <cell r="K8" t="str">
-            <v>BauG-Gasnotstand</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9" t="str">
-            <v>SWH-Marktrisiko Energiebeschaffung</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16" t="str">
-            <v>SWH-kein Zugang zu Finanzmitteln bei Liquiditätsengpässen</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="K72" t="str">
-            <v>HSB-Steigende Kraftstoffpreise</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="K107" t="str">
-            <v>Klinikum-fehlendes Fachpersonal</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="K137" t="str">
-            <v>BHG (Einzel)-unzureichende Konzernliquidität</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3600,90 +5777,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="B2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
-        <f>+IFERROR(VLOOKUP(B3,Register!C:I,7,FALSE),0)</f>
-        <v>250</v>
-      </c>
-      <c r="D3" s="2">
-        <f>+IFERROR(VLOOKUP(B3,Register!C:S,17,FALSE),0)</f>
-        <v>100</v>
-      </c>
-      <c r="F3" t="str">
-        <f>+masterfile!L3</f>
-        <v>very low</v>
-      </c>
-      <c r="G3" s="2">
-        <f>+SUMIF(Register!J:J,1,Register!I:I)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f>+SUMIF(Register!T:T,1,Register!S:S)</f>
-        <v>0</v>
+      <c r="B3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
         <f>+IFERROR(VLOOKUP(B4,Register!C:I,7,FALSE),0)</f>
-        <v>50</v>
+        <v>12000</v>
       </c>
       <c r="D4" s="2">
         <f>+IFERROR(VLOOKUP(B4,Register!C:S,17,FALSE),0)</f>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="F4" t="str">
-        <f>+masterfile!L4</f>
-        <v>low</v>
+        <f>+masterfile!L3</f>
+        <v>very low</v>
       </c>
       <c r="G4" s="2">
-        <f>+SUMIF(Register!J:J,2,Register!I:I)</f>
+        <f>+SUMIF(Register!J:J,1,Register!I:I)</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>+SUMIF(Register!T:T,2,Register!S:S)</f>
-        <v>0</v>
+        <f>+SUMIF(Register!T:T,1,Register!S:S)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <f>+IFERROR(VLOOKUP(B5,Register!C:I,7,FALSE),0)</f>
@@ -3694,21 +5858,21 @@
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <f>+masterfile!L5</f>
-        <v>medium</v>
+        <f>+masterfile!L4</f>
+        <v>low</v>
       </c>
       <c r="G5" s="2">
-        <f>+SUMIF(Register!J:J,3,Register!I:I)</f>
-        <v>0</v>
+        <f>+SUMIF(Register!J:J,2,Register!I:I)</f>
+        <v>150</v>
       </c>
       <c r="H5" s="2">
-        <f>+SUMIF(Register!T:T,3,Register!S:S)</f>
-        <v>0</v>
+        <f>+SUMIF(Register!T:T,2,Register!S:S)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <f>+IFERROR(VLOOKUP(B6,Register!C:I,7,FALSE),0)</f>
@@ -3719,21 +5883,21 @@
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <f>+masterfile!L6</f>
-        <v>high</v>
+        <f>+masterfile!L5</f>
+        <v>medium</v>
       </c>
       <c r="G6" s="2">
-        <f>+SUMIF(Register!J:J,4,Register!I:I)</f>
+        <f>+SUMIF(Register!J:J,3,Register!I:I)</f>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f>+SUMIF(Register!T:T,4,Register!S:S)</f>
-        <v>0</v>
+        <f>+SUMIF(Register!T:T,3,Register!S:S)</f>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <f>+IFERROR(VLOOKUP(B7,Register!C:I,7,FALSE),0)</f>
@@ -3744,48 +5908,86 @@
         <v>0</v>
       </c>
       <c r="F7" t="str">
+        <f>+masterfile!L6</f>
+        <v>high</v>
+      </c>
+      <c r="G7" s="2">
+        <f>+SUMIF(Register!J:J,4,Register!I:I)</f>
+        <v>330</v>
+      </c>
+      <c r="H7" s="2">
+        <f>+SUMIF(Register!T:T,4,Register!S:S)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <f>+IFERROR(VLOOKUP(B8,Register!C:I,7,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>+IFERROR(VLOOKUP(B8,Register!C:S,17,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
         <f>+masterfile!L7</f>
         <v>very high</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <f>+SUMIF(Register!J:J,5,Register!I:I)</f>
-        <v>300</v>
-      </c>
-      <c r="H7" s="2">
+        <v>15000</v>
+      </c>
+      <c r="H8" s="2">
         <f>+SUMIF(Register!T:T,5,Register!S:S)</f>
-        <v>112.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="10">
-        <f>+SUM(C3:C8)</f>
-        <v>300</v>
-      </c>
-      <c r="D9" s="10">
-        <f>+SUM(D3:D8)</f>
-        <v>112.5</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="10">
-        <f>+SUM(G3:G8)</f>
-        <v>300</v>
-      </c>
-      <c r="H9" s="10">
-        <f>+SUM(H3:H8)</f>
-        <v>112.5</v>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2">
+        <f>+IFERROR(VLOOKUP(B9,Register!C:I,7,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f>+IFERROR(VLOOKUP(B9,Register!C:S,17,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="10">
+        <f>+SUM(G4:G9)</f>
+        <v>15480</v>
+      </c>
+      <c r="H10" s="10">
+        <f>+SUM(H4:H9)</f>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10">
+        <f>+SUM(C4:C10)</f>
+        <v>12000</v>
+      </c>
+      <c r="D11" s="10">
+        <f>+SUM(D4:D10)</f>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3801,38 +6003,38 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="84.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.36328125" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" customWidth="1"/>
-    <col min="20" max="20" width="3.81640625" customWidth="1"/>
-    <col min="21" max="21" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.81640625" customWidth="1"/>
-    <col min="23" max="24" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="84.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="45.85546875" customWidth="1"/>
+    <col min="23" max="24" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" ht="24">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3846,22 +6048,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>6</v>
@@ -3876,22 +6078,22 @@
         <v>9</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>12</v>
@@ -3924,61 +6126,66 @@
         <v>19</v>
       </c>
       <c r="E2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="11">
         <f>+IF(E2&lt;masterfile!$B$3,1,IF(E2&lt;masterfile!$B$4,2,IF(E2&lt;masterfile!$B$5,3,IF(E2&lt;masterfile!$B$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2500</v>
-      </c>
-      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="G2" s="12">
+        <v>15000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12">
         <f>+G2*E2</f>
-        <v>250</v>
-      </c>
-      <c r="J2">
-        <f>+IF(I2&lt;masterfile!$K$3,1,IF(I2&lt;masterfile!$K$4,2,IF(I2&lt;masterfile!$K$5,3,IF(I2&lt;masterfile!$K$6,4,5))))</f>
+        <v>12000</v>
+      </c>
+      <c r="J2" s="11">
+        <f>+IF(I2&lt;masterfile!$J$3,1,IF(I2&lt;masterfile!$J$4,2,IF(I2&lt;masterfile!$J$5,3,IF(I2&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O2" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="P2">
+        <v>1E-3</v>
+      </c>
+      <c r="P2" s="11">
         <f>+IF(O2&lt;masterfile!$B$3,1,IF(O2&lt;masterfile!$B$4,2,IF(O2&lt;masterfile!$B$5,3,IF(O2&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2">
+      <c r="Q2" s="12">
+        <f>+G2</f>
+        <v>15000</v>
+      </c>
+      <c r="R2" s="11">
+        <f>+IF(Q2&lt;masterfile!$J$3,1,IF(Q2&lt;masterfile!$J$4,2,IF(Q2&lt;masterfile!$J$5,3,IF(Q2&lt;masterfile!$J$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="S2" s="12">
         <f>+Q2*O2</f>
-        <v>100</v>
-      </c>
-      <c r="T2">
-        <f>+IF(S2&lt;masterfile!$K$3,1,IF(S2&lt;masterfile!$K$4,2,IF(S2&lt;masterfile!$K$5,3,IF(S2&lt;masterfile!$K$6,4,5))))</f>
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="T2" s="11">
+        <f>+IF(S2&lt;masterfile!$J$3,1,IF(S2&lt;masterfile!$J$4,2,IF(S2&lt;masterfile!$J$5,3,IF(S2&lt;masterfile!$J$6,4,5))))</f>
+        <v>1</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" ht="45">
       <c r="A3">
-        <f t="shared" ref="A3:A8" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3988,51 +6195,69 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="F3" s="11">
         <f>+IF(E3&lt;masterfile!$B$3,1,IF(E3&lt;masterfile!$B$4,2,IF(E3&lt;masterfile!$B$5,3,IF(E3&lt;masterfile!$B$6,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="11">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I8" si="1">+G3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>+IF(I3&lt;masterfile!$K$3,1,IF(I3&lt;masterfile!$K$4,2,IF(I3&lt;masterfile!$K$5,3,IF(I3&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I7" si="1">+G3*E3</f>
+        <v>330</v>
+      </c>
+      <c r="J3" s="11">
+        <f>+IF(I3&lt;masterfile!$J$3,1,IF(I3&lt;masterfile!$J$4,2,IF(I3&lt;masterfile!$J$5,3,IF(I3&lt;masterfile!$J$6,4,5))))</f>
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>68</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="O3" s="3">
         <v>0.05</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="11">
         <f>+IF(O3&lt;masterfile!$B$3,1,IF(O3&lt;masterfile!$B$4,2,IF(O3&lt;masterfile!$B$5,3,IF(O3&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S8" si="2">+Q3*O3</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>+IF(S3&lt;masterfile!$K$3,1,IF(S3&lt;masterfile!$K$4,2,IF(S3&lt;masterfile!$K$5,3,IF(S3&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="V3" s="1"/>
+      <c r="Q3" s="12">
+        <f>+G3</f>
+        <v>1000</v>
+      </c>
+      <c r="R3" s="11">
+        <f>+IF(Q3&lt;masterfile!$J$3,1,IF(Q3&lt;masterfile!$J$4,2,IF(Q3&lt;masterfile!$J$5,3,IF(Q3&lt;masterfile!$J$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="S3" s="12">
+        <f t="shared" ref="S3:S7" si="2">+Q3*O3</f>
+        <v>50</v>
+      </c>
+      <c r="T3" s="11">
+        <f>+IF(S3&lt;masterfile!$J$3,1,IF(S3&lt;masterfile!$J$4,2,IF(S3&lt;masterfile!$J$5,3,IF(S3&lt;masterfile!$J$6,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="W3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="43.5">
+    <row r="4" spans="1:25" ht="105">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4044,53 +6269,70 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4">
+        <v>27</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="11">
         <f>+IF(E4&lt;masterfile!$B$3,1,IF(E4&lt;masterfile!$B$4,2,IF(E4&lt;masterfile!$B$5,3,IF(E4&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="12">
+        <f>+G2</f>
+        <v>15000</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>+IF(I4&lt;masterfile!$K$3,1,IF(I4&lt;masterfile!$K$4,2,IF(I4&lt;masterfile!$K$5,3,IF(I4&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
+        <v>1500</v>
+      </c>
+      <c r="J4" s="11">
+        <f>+IF(I4&lt;masterfile!$J$3,1,IF(I4&lt;masterfile!$J$4,2,IF(I4&lt;masterfile!$J$5,3,IF(I4&lt;masterfile!$J$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="O4" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="P4">
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="11">
         <f>+IF(O4&lt;masterfile!$B$3,1,IF(O4&lt;masterfile!$B$4,2,IF(O4&lt;masterfile!$B$5,3,IF(O4&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="S4">
+      <c r="Q4" s="12">
+        <f>+G4</f>
+        <v>15000</v>
+      </c>
+      <c r="R4" s="11">
+        <f>+IF(Q4&lt;masterfile!$J$3,1,IF(Q4&lt;masterfile!$J$4,2,IF(Q4&lt;masterfile!$J$5,3,IF(Q4&lt;masterfile!$J$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="S4" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>+IF(S4&lt;masterfile!$K$3,1,IF(S4&lt;masterfile!$K$4,2,IF(S4&lt;masterfile!$K$5,3,IF(S4&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="T4" s="11">
+        <f>+IF(S4&lt;masterfile!$J$3,1,IF(S4&lt;masterfile!$J$4,2,IF(S4&lt;masterfile!$J$5,3,IF(S4&lt;masterfile!$J$6,4,5))))</f>
+        <v>3</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="W4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="87">
+    <row r="5" spans="1:25" ht="60">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4104,51 +6346,65 @@
       <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5">
+      <c r="E5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F5" s="11">
         <f>+IF(E5&lt;masterfile!$B$3,1,IF(E5&lt;masterfile!$B$4,2,IF(E5&lt;masterfile!$B$5,3,IF(E5&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="11">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>+IF(I5&lt;masterfile!$K$3,1,IF(I5&lt;masterfile!$K$4,2,IF(I5&lt;masterfile!$K$5,3,IF(I5&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="J5" s="11">
+        <f>+IF(I5&lt;masterfile!$J$3,1,IF(I5&lt;masterfile!$J$4,2,IF(I5&lt;masterfile!$J$5,3,IF(I5&lt;masterfile!$J$6,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="O5" s="3">
         <v>0.05</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="11">
         <f>+IF(O5&lt;masterfile!$B$3,1,IF(O5&lt;masterfile!$B$4,2,IF(O5&lt;masterfile!$B$5,3,IF(O5&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="S5">
+      <c r="Q5" s="12">
+        <f>+G5/10</f>
+        <v>100</v>
+      </c>
+      <c r="R5" s="11">
+        <f>+IF(Q5&lt;masterfile!$J$3,1,IF(Q5&lt;masterfile!$J$4,2,IF(Q5&lt;masterfile!$J$5,3,IF(Q5&lt;masterfile!$J$6,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="S5" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>+IF(S5&lt;masterfile!$K$3,1,IF(S5&lt;masterfile!$K$4,2,IF(S5&lt;masterfile!$K$5,3,IF(S5&lt;masterfile!$K$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="T5" s="11">
+        <f>+IF(S5&lt;masterfile!$J$3,1,IF(S5&lt;masterfile!$J$4,2,IF(S5&lt;masterfile!$J$5,3,IF(S5&lt;masterfile!$J$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="V5" s="1"/>
       <c r="W5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="43.5">
+    <row r="6" spans="1:25" ht="60">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4160,51 +6416,70 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="11">
         <f>+IF(E6&lt;masterfile!$B$3,1,IF(E6&lt;masterfile!$B$4,2,IF(E6&lt;masterfile!$B$5,3,IF(E6&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="12">
+        <f>+G2</f>
+        <v>15000</v>
+      </c>
+      <c r="H6" s="11">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>+IF(I6&lt;masterfile!$K$3,1,IF(I6&lt;masterfile!$K$4,2,IF(I6&lt;masterfile!$K$5,3,IF(I6&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
+        <v>1500</v>
+      </c>
+      <c r="J6" s="11">
+        <f>+IF(I6&lt;masterfile!$J$3,1,IF(I6&lt;masterfile!$J$4,2,IF(I6&lt;masterfile!$J$5,3,IF(I6&lt;masterfile!$J$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="O6" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="P6">
+        <v>0.01</v>
+      </c>
+      <c r="P6" s="11">
         <f>+IF(O6&lt;masterfile!$B$3,1,IF(O6&lt;masterfile!$B$4,2,IF(O6&lt;masterfile!$B$5,3,IF(O6&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="S6">
+      <c r="Q6" s="12">
+        <f>+G6</f>
+        <v>15000</v>
+      </c>
+      <c r="R6" s="11">
+        <f>+IF(Q6&lt;masterfile!$J$3,1,IF(Q6&lt;masterfile!$J$4,2,IF(Q6&lt;masterfile!$J$5,3,IF(Q6&lt;masterfile!$J$6,4,5))))</f>
+        <v>5</v>
+      </c>
+      <c r="S6" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>+IF(S6&lt;masterfile!$K$3,1,IF(S6&lt;masterfile!$K$4,2,IF(S6&lt;masterfile!$K$5,3,IF(S6&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="1"/>
+        <v>150</v>
+      </c>
+      <c r="T6" s="11">
+        <f>+IF(S6&lt;masterfile!$J$3,1,IF(S6&lt;masterfile!$J$4,2,IF(S6&lt;masterfile!$J$5,3,IF(S6&lt;masterfile!$J$6,4,5))))</f>
+        <v>3</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="W6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="58">
+    <row r="7" spans="1:25" ht="60">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4216,163 +6491,86 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="11">
         <f>+IF(E7&lt;masterfile!$B$3,1,IF(E7&lt;masterfile!$B$4,2,IF(E7&lt;masterfile!$B$5,3,IF(E7&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="12">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>3</v>
+      </c>
+      <c r="I7" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>+IF(I7&lt;masterfile!$K$3,1,IF(I7&lt;masterfile!$K$4,2,IF(I7&lt;masterfile!$K$5,3,IF(I7&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="J7" s="11">
+        <f>+IF(I7&lt;masterfile!$J$3,1,IF(I7&lt;masterfile!$J$4,2,IF(I7&lt;masterfile!$J$5,3,IF(I7&lt;masterfile!$J$6,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="O7" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="P7">
+        <v>0.01</v>
+      </c>
+      <c r="P7" s="11">
         <f>+IF(O7&lt;masterfile!$B$3,1,IF(O7&lt;masterfile!$B$4,2,IF(O7&lt;masterfile!$B$5,3,IF(O7&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="S7">
+      <c r="Q7" s="12">
+        <f>+G7/10</f>
+        <v>100</v>
+      </c>
+      <c r="R7" s="11">
+        <f>+IF(Q7&lt;masterfile!$J$3,1,IF(Q7&lt;masterfile!$J$4,2,IF(Q7&lt;masterfile!$J$5,3,IF(Q7&lt;masterfile!$J$6,4,5))))</f>
+        <v>2</v>
+      </c>
+      <c r="S7" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>+IF(S7&lt;masterfile!$K$3,1,IF(S7&lt;masterfile!$K$4,2,IF(S7&lt;masterfile!$K$5,3,IF(S7&lt;masterfile!$K$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="T7" s="11">
+        <f>+IF(S7&lt;masterfile!$J$3,1,IF(S7&lt;masterfile!$J$4,2,IF(S7&lt;masterfile!$J$5,3,IF(S7&lt;masterfile!$J$6,4,5))))</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="1"/>
       <c r="W7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="43.5">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8">
-        <f>+IF(E8&lt;masterfile!$B$3,1,IF(E8&lt;masterfile!$B$4,2,IF(E8&lt;masterfile!$B$5,3,IF(E8&lt;masterfile!$B$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>+IF(I8&lt;masterfile!$K$3,1,IF(I8&lt;masterfile!$K$4,2,IF(I8&lt;masterfile!$K$5,3,IF(I8&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="P8">
-        <f>+IF(O8&lt;masterfile!$B$3,1,IF(O8&lt;masterfile!$B$4,2,IF(O8&lt;masterfile!$B$5,3,IF(O8&lt;masterfile!$B$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>+IF(S8&lt;masterfile!$K$3,1,IF(S8&lt;masterfile!$K$4,2,IF(S8&lt;masterfile!$K$5,3,IF(S8&lt;masterfile!$K$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="1"/>
-      <c r="W8" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" t="s">
-        <v>21</v>
-      </c>
+    <row r="8" spans="1:25">
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F9">
-        <f>+IF(E9&lt;masterfile!$B$3,1,IF(E9&lt;masterfile!$B$4,2,IF(E9&lt;masterfile!$B$5,3,IF(E9&lt;masterfile!$B$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>500</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <f>+G9*E9</f>
-        <v>50</v>
-      </c>
-      <c r="J9">
-        <f>+IF(I9&lt;masterfile!$K$3,1,IF(I9&lt;masterfile!$K$4,2,IF(I9&lt;masterfile!$K$5,3,IF(I9&lt;masterfile!$K$6,4,5))))</f>
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="P9">
-        <f>+IF(O9&lt;masterfile!$B$3,1,IF(O9&lt;masterfile!$B$4,2,IF(O9&lt;masterfile!$B$5,3,IF(O9&lt;masterfile!$B$6,4,5))))</f>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>250</v>
-      </c>
-      <c r="R9">
-        <v>4</v>
-      </c>
-      <c r="S9">
-        <f>+Q9*O9</f>
-        <v>12.5</v>
-      </c>
-      <c r="T9">
-        <f>+IF(S9&lt;masterfile!$K$3,1,IF(S9&lt;masterfile!$K$4,2,IF(S9&lt;masterfile!$K$5,3,IF(S9&lt;masterfile!$K$6,4,5))))</f>
-        <v>5</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H1:H1048576 F1:F1048576 J1:J1048576 P1:P1048576 R1:R1048576 T1:T1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF4F4F"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4383,48 +6581,51 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="B2:L7"/>
+  <dimension ref="B2:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:14">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:14">
       <c r="B3" s="6">
         <v>0.2</v>
       </c>
@@ -4432,13 +6633,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>50</v>
@@ -4447,10 +6648,13 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:14">
       <c r="B4" s="6">
         <v>0.4</v>
       </c>
@@ -4458,13 +6662,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>150</v>
@@ -4473,10 +6677,13 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:14">
       <c r="B5" s="6">
         <v>0.6</v>
       </c>
@@ -4484,13 +6691,13 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>250</v>
@@ -4499,10 +6706,13 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:14">
       <c r="B6" s="6">
         <v>0.8</v>
       </c>
@@ -4510,13 +6720,13 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>450</v>
@@ -4525,10 +6735,13 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:14">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -4536,13 +6749,13 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>750</v>
@@ -4551,7 +6764,25 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="N9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="N10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Processes/Quality Management/COSO/Risk Management/Risk Report.xlsx
+++ b/Processes/Quality Management/COSO/Risk Management/Risk Report.xlsx
@@ -1,36 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588BEA5-B236-4234-9C3E-B1D5456B735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="masterfile" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
+    <t>Risk Categories</t>
+  </si>
+  <si>
+    <t>Risk Levels</t>
+  </si>
+  <si>
+    <t>EV in TEUR</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operational Risk </t>
+  </si>
+  <si>
+    <t>Financial Risk</t>
+  </si>
+  <si>
+    <t>Compliance Risk</t>
+  </si>
+  <si>
+    <t>Strategic Risk</t>
+  </si>
+  <si>
+    <t>Other Risk</t>
+  </si>
+  <si>
+    <t>Market Risk</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">No. </t>
   </si>
   <si>
@@ -43,13 +66,25 @@
     <t xml:space="preserve">Risk Event </t>
   </si>
   <si>
+    <t>L %</t>
+  </si>
+  <si>
     <t xml:space="preserve">L </t>
   </si>
   <si>
+    <t>C TEUR</t>
+  </si>
+  <si>
     <t xml:space="preserve">C </t>
   </si>
   <si>
-    <t xml:space="preserve">O </t>
+    <t>EV TEUR</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
   <si>
     <t xml:space="preserve">Cause </t>
@@ -61,12 +96,24 @@
     <t xml:space="preserve">Mitigation Strategy </t>
   </si>
   <si>
+    <t>L* %</t>
+  </si>
+  <si>
     <t xml:space="preserve">L* </t>
   </si>
   <si>
+    <t>C* TEUR</t>
+  </si>
+  <si>
     <t xml:space="preserve">C* </t>
   </si>
   <si>
+    <t>EV* TEUR</t>
+  </si>
+  <si>
+    <t>EV*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Changes </t>
   </si>
   <si>
@@ -85,117 +132,102 @@
     <t xml:space="preserve">DE </t>
   </si>
   <si>
-    <t xml:space="preserve">Operational Risk </t>
-  </si>
-  <si>
     <t xml:space="preserve">Loss of source code </t>
   </si>
   <si>
+    <t>Preventing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Store source code in cloud (github). At least one local developer PC and project server. </t>
+  </si>
+  <si>
     <t xml:space="preserve">yes </t>
   </si>
   <si>
-    <t>L %</t>
-  </si>
-  <si>
-    <t>C TEUR</t>
-  </si>
-  <si>
-    <t>L* %</t>
-  </si>
-  <si>
-    <t>C* TEUR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Source code leak </t>
   </si>
   <si>
+    <t>Revealing</t>
+  </si>
+  <si>
+    <t>Most code is compiled at runtime. The value of the software lies in the updates, support and licenses. The pre-compiled software solutions are stored in protected storages where only authorized personnel has access.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Many companies transferred the revenue model to subscriptions (e.g. Adobe, Microsoft) in order to avoid similar problems. </t>
   </si>
   <si>
     <t xml:space="preserve">User acquires additional permissions without authorization (every software which uses permissions) </t>
   </si>
   <si>
+    <t xml:space="preserve">Permissions can only be granted by users which have received the permissions to do so. Users which can change permissions may also only have the permission to change specific users/permissions (single application elements, not the whole application.). We provide a documentation on who to manage permissions incl. best practices. Customers with a maintenance contract also receive additional advice based on their account permission handling. We also check regularly if features can be used by default without the necessary permissions. </t>
+  </si>
+  <si>
     <t xml:space="preserve">The consequences or severities depend on the permissions which can be acquired. </t>
   </si>
   <si>
     <t xml:space="preserve">User code execution (every software which allows data upload/input) </t>
   </si>
   <si>
+    <t xml:space="preserve">User provided code is a critical part of some modules (e.g. Helper, Job). These modules provided by OMS execute code user code in iframes. We provide guidelines regarding this sensitive topic which explains that only developers in a company should have access to such functionalities. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Data leak (e.g. database data, file uploads) (every software which stores data) </t>
   </si>
   <si>
+    <t xml:space="preserve">We regularly check if users have access to data without the necessary permissions. Our modules may use encryption for extremely sensitive data. Media files are only accessible through the media module which allows to check the necessary reading permissions. We also provide a general policy for customers who to secure and maintain their servers. </t>
+  </si>
+  <si>
     <t xml:space="preserve">This is a big problem for almost every company working with data. The biggest known leaks happened among others to Adobe, ebay, Equifax, LinkedIn, Yahoo, ... </t>
   </si>
   <si>
     <t xml:space="preserve">Corrupt/malicious data injection (every software which accepts data input) </t>
   </si>
   <si>
-    <t>EV</t>
-  </si>
-  <si>
-    <t>EV TEUR</t>
+    <t xml:space="preserve">Data is validated client side (minimal protection) and server side. Generally, user input is only accepted if it matches the specified allowed format. Data is usually not sanitized to avoid mistakes during the sanitizing process. Database query statements are prepared and encoded. </t>
   </si>
   <si>
     <t>Likelihood</t>
   </si>
   <si>
+    <t>Score</t>
+  </si>
+  <si>
     <t>Consequence</t>
   </si>
   <si>
     <t>Expected value</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Abbreviations</t>
   </si>
   <si>
     <t>very low</t>
   </si>
   <si>
+    <t>R: Responsible</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
+    <t>L: Likelihood (1-5)</t>
+  </si>
+  <si>
     <t>medium</t>
   </si>
   <si>
+    <t>C: Consequence (1-5)</t>
+  </si>
+  <si>
     <t>high</t>
   </si>
   <si>
+    <t>L*/C*: Likelihood and Consequence after mitigation</t>
+  </si>
+  <si>
     <t>very high</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Gross</t>
-  </si>
-  <si>
-    <t>Net</t>
-  </si>
-  <si>
-    <t>Financial Risk</t>
-  </si>
-  <si>
-    <t>Compliance Risk</t>
-  </si>
-  <si>
-    <t>Strategic Risk</t>
-  </si>
-  <si>
-    <t>Other Risk</t>
-  </si>
-  <si>
-    <t>Abbreviations</t>
-  </si>
-  <si>
-    <t>R: Responsible</t>
-  </si>
-  <si>
-    <t>L: Likelihood (1-5)</t>
-  </si>
-  <si>
-    <t>C: Consequence (1-5)</t>
-  </si>
-  <si>
     <t>O: Occurrence (many times a day, daily, weekly, monthly, annually)</t>
   </si>
   <si>
@@ -206,83 +238,92 @@
   </si>
   <si>
     <t>EV: Expected value</t>
-  </si>
-  <si>
-    <t>L*/C*: Likelihood and Consequence after mitigation</t>
-  </si>
-  <si>
-    <t>EV* TEUR</t>
-  </si>
-  <si>
-    <t>EV*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Store source code in cloud (github). At least one local developer PC and project server. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permissions can only be granted by users which have received the permissions to do so. Users which can change permissions may also only have the permission to change specific users/permissions (single application elements, not the whole application.). We provide a documentation on who to manage permissions incl. best practices. Customers with a maintenance contract also receive additional advice based on their account permission handling. We also check regularly if features can be used by default without the necessary permissions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User provided code is a critical part of some modules (e.g. Helper, Job). These modules provided by OMS execute code user code in iframes. We provide guidelines regarding this sensitive topic which explains that only developers in a company should have access to such functionalities. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We regularly check if users have access to data without the necessary permissions. Our modules may use encryption for extremely sensitive data. Media files are only accessible through the media module which allows to check the necessary reading permissions. We also provide a general policy for customers who to secure and maintain their servers. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data is validated client side (minimal protection) and server side. Generally, user input is only accepted if it matches the specified allowed format. Data is usually not sanitized to avoid mistakes during the sanitizing process. Database query statements are prepared and encoded. </t>
-  </si>
-  <si>
-    <t>Preventing</t>
-  </si>
-  <si>
-    <t>Revealing</t>
-  </si>
-  <si>
-    <t>Market Risk</t>
-  </si>
-  <si>
-    <t>Most code is compiled at runtime. The value of the software lies in the updates, support and licenses. The pre-compiled software solutions are stored in protected storages where only authorized personnel has access.</t>
-  </si>
-  <si>
-    <t>Risk Levels</t>
-  </si>
-  <si>
-    <t>Risk Categories</t>
-  </si>
-  <si>
-    <t>EV in TEUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,18 +331,95 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,12 +428,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -328,90 +626,368 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF4F4F"/>
-      <color rgb="FF63BE7B"/>
+      <color rgb="00FF4F4F"/>
+      <color rgb="0063BE7B"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -425,7 +1001,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
@@ -455,16 +1031,28 @@
               </a:rPr>
               <a:t>Net Risks</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -481,8 +1069,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -495,13 +1085,18 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Register!$O$2:$O$11</c:f>
@@ -509,7 +1104,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.05</c:v>
@@ -557,11 +1152,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-460E-4602-AD67-885E374A96DC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -584,7 +1174,7 @@
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:tint val="75000"/>
@@ -593,13 +1183,14 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
@@ -629,15 +1220,43 @@
                   </a:rPr>
                   <a:t>Likelihood (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="302891008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -651,15 +1270,23 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:prstDash val="dash"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
@@ -689,9 +1316,21 @@
                   </a:rPr>
                   <a:t>Consequence in TEUR</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -699,10 +1338,34 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:prstDash val="sysDash"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="279770624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -736,26 +1399,37 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="bg1">
           <a:lumMod val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -778,6 +1452,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -786,26 +1461,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -826,6 +1481,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -840,11 +1496,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -860,11 +1511,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -880,11 +1526,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -900,11 +1541,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -920,12 +1556,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$B$4:$B$8</c:f>
@@ -973,11 +1607,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2D43-4678-8217-6AAB9E368B0F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -993,6 +1622,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1007,11 +1637,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1027,11 +1652,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1047,11 +1667,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1067,11 +1682,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1087,12 +1697,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-511F-46FE-B2F2-6CDC3549506A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$B$4:$B$8</c:f>
@@ -1140,11 +1748,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2D43-4678-8217-6AAB9E368B0F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1168,6 +1771,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1181,7 +1785,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1193,19 +1797,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1219,6 +1815,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1228,23 +1825,22 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1267,6 +1863,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1275,26 +1872,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1315,6 +1892,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1329,11 +1907,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1349,11 +1922,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1369,11 +1937,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1391,11 +1954,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1413,12 +1971,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$F$4:$F$8</c:f>
@@ -1466,11 +2022,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-C716-4A90-9556-1A6560622748}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1486,6 +2037,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1500,11 +2052,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1520,11 +2067,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1540,11 +2082,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1562,11 +2099,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1584,12 +2116,10 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-C716-4A90-9556-1A6560622748}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$F$4:$F$8</c:f>
@@ -1637,11 +2167,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-C716-4A90-9556-1A6560622748}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1665,6 +2190,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1678,7 +2204,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1690,19 +2216,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1716,6 +2234,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1725,23 +2244,22 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1755,7 +2273,7 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
@@ -1785,16 +2303,28 @@
               </a:rPr>
               <a:t>Gross Risks</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1811,8 +2341,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -1825,13 +2357,18 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Register!$E$2:$E$999</c:f>
@@ -1887,11 +2424,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FBA-4A95-A5BB-9F45C78A49C3}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1914,7 +2446,7 @@
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:tint val="75000"/>
@@ -1923,13 +2455,14 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:prstDash val="dash"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
@@ -1959,15 +2492,43 @@
                   </a:rPr>
                   <a:t>Likelihood (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="302891008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -1981,15 +2542,23 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:prstDash val="dash"/>
+              <a:round/>
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
@@ -2019,9 +2588,21 @@
                   </a:rPr>
                   <a:t>Consequence in TEUR</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -2029,10 +2610,34 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:prstDash val="sysDash"/>
+            <a:round/>
           </a:ln>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="279770624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
@@ -2066,26 +2671,37 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="bg1">
           <a:lumMod val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2108,6 +2724,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2116,26 +2733,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2172,6 +2769,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$B$4:$B$9</c:f>
@@ -2225,11 +2825,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A413-475A-A905-AAA173FC516B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2256,6 +2851,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$B$4:$B$9</c:f>
@@ -2309,11 +2907,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A413-475A-A905-AAA173FC516B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2348,6 +2941,7 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -2357,7 +2951,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2369,7 +2963,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699659616"/>
@@ -2396,6 +2989,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2413,6 +3007,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2421,26 +3016,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2448,8 +3023,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2458,7 +3035,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2470,7 +3047,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699642976"/>
@@ -2487,6 +3063,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2500,7 +3077,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2512,19 +3089,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2538,6 +3107,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2547,9 +3117,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2561,9 +3130,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2586,6 +3155,7 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2594,26 +3164,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2650,6 +3200,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$F$4:$F$8</c:f>
@@ -2697,11 +3250,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B22D-4704-8A67-2CF41497B49B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2728,6 +3276,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$F$4:$F$8</c:f>
@@ -2775,11 +3326,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B22D-4704-8A67-2CF41497B49B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2814,6 +3360,7 @@
                 <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -2823,7 +3370,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2835,7 +3382,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699659616"/>
@@ -2862,6 +3408,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2879,6 +3426,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2887,26 +3435,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2914,8 +3442,10 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2924,7 +3454,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2936,7 +3466,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="699642976"/>
@@ -2953,6 +3482,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2966,7 +3496,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2978,19 +3508,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3004,6 +3526,7 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3013,9 +3536,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3026,2209 +3548,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5242,22 +3563,14 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C53E674-865C-40C3-814E-33A33131215F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="295275" y="5090160"/>
+        <a:ext cx="7677150" cy="3571875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5280,20 +3593,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F815B9-0F14-33E5-B124-A78DD301558F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="304800" y="2195830"/>
+        <a:ext cx="5280660" cy="2778125"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5316,22 +3623,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDCDA2CB-D7ED-4482-AA74-F7FFF3D6B378}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5697855" y="2204085"/>
+        <a:ext cx="5348605" cy="2778125"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5354,22 +3653,14 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32A0246-4436-48F1-BAA6-81E4F2B6931B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8067675" y="5090160"/>
+        <a:ext cx="7659370" cy="3571875"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5392,20 +3683,14 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2A2A28-7B27-E6E4-4909-DF64024967C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="309245" y="8778240"/>
+        <a:ext cx="7644130" cy="2631440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5428,22 +3713,14 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD1442E-D9C2-4829-B3A8-314392F9F150}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8058150" y="8776335"/>
+        <a:ext cx="7645400" cy="2628900"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5499,7 +3776,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5532,26 +3809,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5584,23 +3844,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5771,64 +4014,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>46</v>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
         <f>+IFERROR(VLOOKUP(B4,Register!C:I,7,FALSE),0)</f>
         <v>12000</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="9">
         <f>+IFERROR(VLOOKUP(B4,Register!C:S,17,FALSE),0)</f>
         <v>15</v>
       </c>
@@ -5836,24 +4081,24 @@
         <f>+masterfile!L3</f>
         <v>very low</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <f>+SUMIF(Register!J:J,1,Register!I:I)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <f>+SUMIF(Register!T:T,1,Register!S:S)</f>
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
         <f>+IFERROR(VLOOKUP(B5,Register!C:I,7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="9">
         <f>+IFERROR(VLOOKUP(B5,Register!C:S,17,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -5861,24 +4106,24 @@
         <f>+masterfile!L4</f>
         <v>low</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
         <f>+SUMIF(Register!J:J,2,Register!I:I)</f>
         <v>150</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="9">
         <f>+SUMIF(Register!T:T,2,Register!S:S)</f>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
         <f>+IFERROR(VLOOKUP(B6,Register!C:I,7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="9">
         <f>+IFERROR(VLOOKUP(B6,Register!C:S,17,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -5886,24 +4131,24 @@
         <f>+masterfile!L5</f>
         <v>medium</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="9">
         <f>+SUMIF(Register!J:J,3,Register!I:I)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="9">
         <f>+SUMIF(Register!T:T,3,Register!S:S)</f>
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
         <f>+IFERROR(VLOOKUP(B7,Register!C:I,7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <f>+IFERROR(VLOOKUP(B7,Register!C:S,17,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -5911,24 +4156,24 @@
         <f>+masterfile!L6</f>
         <v>high</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="9">
         <f>+SUMIF(Register!J:J,4,Register!I:I)</f>
         <v>330</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="9">
         <f>+SUMIF(Register!T:T,4,Register!S:S)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9">
         <f>+IFERROR(VLOOKUP(B8,Register!C:I,7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="9">
         <f>+IFERROR(VLOOKUP(B8,Register!C:S,17,FALSE),0)</f>
         <v>0</v>
       </c>
@@ -5936,630 +4181,630 @@
         <f>+masterfile!L7</f>
         <v>very high</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="9">
         <f>+SUMIF(Register!J:J,5,Register!I:I)</f>
         <v>15000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="9">
         <f>+SUMIF(Register!T:T,5,Register!S:S)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9">
         <f>+IFERROR(VLOOKUP(B9,Register!C:I,7,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="9">
         <f>+IFERROR(VLOOKUP(B9,Register!C:S,17,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="F10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="10">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13">
         <f>+SUM(G4:G9)</f>
         <v>15480</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="13">
         <f>+SUM(H4:H9)</f>
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10">
+    <row r="11" spans="2:4">
+      <c r="B11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13">
         <f>+SUM(C4:C10)</f>
         <v>12000</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="13">
         <f>+SUM(D4:D10)</f>
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42857142857143" customWidth="1"/>
+    <col min="2" max="2" width="3.57142857142857" customWidth="1"/>
+    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="39.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="6.28571428571429" customWidth="1"/>
+    <col min="6" max="6" width="3.42857142857143" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.14285714285714" customWidth="1"/>
+    <col min="8" max="8" width="2.42857142857143" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="84.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" customWidth="1"/>
-    <col min="20" max="20" width="4.140625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.85546875" customWidth="1"/>
-    <col min="23" max="24" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.85714285714286" style="2" customWidth="1"/>
+    <col min="11" max="11" width="2.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="6.42857142857143" customWidth="1"/>
+    <col min="13" max="13" width="14.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="84.5714285714286" customWidth="1"/>
+    <col min="15" max="15" width="4.57142857142857" customWidth="1"/>
+    <col min="16" max="16" width="3.42857142857143" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.14285714285714" customWidth="1"/>
+    <col min="18" max="18" width="3.42857142857143" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.28571428571429" customWidth="1"/>
+    <col min="20" max="20" width="4.14285714285714" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.42857142857143" customWidth="1"/>
+    <col min="22" max="22" width="45.8571428571429" customWidth="1"/>
+    <col min="23" max="24" width="4.14285714285714" customWidth="1"/>
+    <col min="25" max="25" width="9.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>16</v>
+      <c r="X1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:24">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.8</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="2">
         <f>+IF(E2&lt;masterfile!$B$3,1,IF(E2&lt;masterfile!$B$4,2,IF(E2&lt;masterfile!$B$5,3,IF(E2&lt;masterfile!$B$6,4,5))))</f>
         <v>5</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>15000</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="2">
         <v>5</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="6">
         <f>+G2*E2</f>
         <v>12000</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="2">
         <f>+IF(I2&lt;masterfile!$J$3,1,IF(I2&lt;masterfile!$J$4,2,IF(I2&lt;masterfile!$J$5,3,IF(I2&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="P2" s="11">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.001</v>
+      </c>
+      <c r="P2" s="2">
         <f>+IF(O2&lt;masterfile!$B$3,1,IF(O2&lt;masterfile!$B$4,2,IF(O2&lt;masterfile!$B$5,3,IF(O2&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="6">
         <f>+G2</f>
         <v>15000</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="2">
         <f>+IF(Q2&lt;masterfile!$J$3,1,IF(Q2&lt;masterfile!$J$4,2,IF(Q2&lt;masterfile!$J$5,3,IF(Q2&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="6">
         <f>+Q2*O2</f>
         <v>15</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="2">
         <f>+IF(S2&lt;masterfile!$J$3,1,IF(S2&lt;masterfile!$J$4,2,IF(S2&lt;masterfile!$J$5,3,IF(S2&lt;masterfile!$J$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="V2" s="1"/>
+      <c r="V2" s="4"/>
       <c r="W2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="45">
+    <row r="3" ht="43.2" spans="1:24">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.33</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="2">
         <f>+IF(E3&lt;masterfile!$B$3,1,IF(E3&lt;masterfile!$B$4,2,IF(E3&lt;masterfile!$B$5,3,IF(E3&lt;masterfile!$B$6,4,5))))</f>
         <v>2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>1000</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I7" si="1">+G3*E3</f>
         <v>330</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="2">
         <f>+IF(I3&lt;masterfile!$J$3,1,IF(I3&lt;masterfile!$J$4,2,IF(I3&lt;masterfile!$J$5,3,IF(I3&lt;masterfile!$J$6,4,5))))</f>
         <v>4</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" s="3">
+        <v>43</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="7">
         <v>0.05</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="2">
         <f>+IF(O3&lt;masterfile!$B$3,1,IF(O3&lt;masterfile!$B$4,2,IF(O3&lt;masterfile!$B$5,3,IF(O3&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="12">
+      <c r="Q3" s="6">
         <f>+G3</f>
         <v>1000</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="2">
         <f>+IF(Q3&lt;masterfile!$J$3,1,IF(Q3&lt;masterfile!$J$4,2,IF(Q3&lt;masterfile!$J$5,3,IF(Q3&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
-      <c r="S3" s="12">
+      <c r="S3" s="6">
         <f t="shared" ref="S3:S7" si="2">+Q3*O3</f>
         <v>50</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="2">
         <f>+IF(S3&lt;masterfile!$J$3,1,IF(S3&lt;masterfile!$J$4,2,IF(S3&lt;masterfile!$J$5,3,IF(S3&lt;masterfile!$J$6,4,5))))</f>
         <v>2</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>26</v>
+      <c r="V3" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="105">
+    <row r="4" ht="86.4" spans="1:24">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1">
         <v>0.1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="2">
         <f>+IF(E4&lt;masterfile!$B$3,1,IF(E4&lt;masterfile!$B$4,2,IF(E4&lt;masterfile!$B$5,3,IF(E4&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <f>+G2</f>
         <v>15000</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="2">
         <v>5</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="6">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="2">
         <f>+IF(I4&lt;masterfile!$J$3,1,IF(I4&lt;masterfile!$J$4,2,IF(I4&lt;masterfile!$J$5,3,IF(I4&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="3">
+        <v>39</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="7">
         <v>0.01</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="2">
         <f>+IF(O4&lt;masterfile!$B$3,1,IF(O4&lt;masterfile!$B$4,2,IF(O4&lt;masterfile!$B$5,3,IF(O4&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="6">
         <f>+G4</f>
         <v>15000</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="2">
         <f>+IF(Q4&lt;masterfile!$J$3,1,IF(Q4&lt;masterfile!$J$4,2,IF(Q4&lt;masterfile!$J$5,3,IF(Q4&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
-      <c r="S4" s="12">
+      <c r="S4" s="6">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="2">
         <f>+IF(S4&lt;masterfile!$J$3,1,IF(S4&lt;masterfile!$J$4,2,IF(S4&lt;masterfile!$J$5,3,IF(S4&lt;masterfile!$J$6,4,5))))</f>
         <v>3</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>28</v>
+      <c r="V4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="W4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="60">
+    <row r="5" ht="43.2" spans="1:24">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.05</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="2">
         <f>+IF(E5&lt;masterfile!$B$3,1,IF(E5&lt;masterfile!$B$4,2,IF(E5&lt;masterfile!$B$5,3,IF(E5&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>1000</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="2">
         <f>+IF(I5&lt;masterfile!$J$3,1,IF(I5&lt;masterfile!$J$4,2,IF(I5&lt;masterfile!$J$5,3,IF(I5&lt;masterfile!$J$6,4,5))))</f>
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="3">
+        <v>39</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="7">
         <v>0.05</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="2">
         <f>+IF(O5&lt;masterfile!$B$3,1,IF(O5&lt;masterfile!$B$4,2,IF(O5&lt;masterfile!$B$5,3,IF(O5&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="6">
         <f>+G5/10</f>
         <v>100</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="2">
         <f>+IF(Q5&lt;masterfile!$J$3,1,IF(Q5&lt;masterfile!$J$4,2,IF(Q5&lt;masterfile!$J$5,3,IF(Q5&lt;masterfile!$J$6,4,5))))</f>
         <v>2</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="6">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="2">
         <f>+IF(S5&lt;masterfile!$J$3,1,IF(S5&lt;masterfile!$J$4,2,IF(S5&lt;masterfile!$J$5,3,IF(S5&lt;masterfile!$J$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="V5" s="1"/>
+      <c r="V5" s="4"/>
       <c r="W5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="60">
+    <row r="6" ht="57.6" spans="1:24">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="2">
         <f>+IF(E6&lt;masterfile!$B$3,1,IF(E6&lt;masterfile!$B$4,2,IF(E6&lt;masterfile!$B$5,3,IF(E6&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <f>+G2</f>
         <v>15000</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="2">
         <v>5</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="2">
         <f>+IF(I6&lt;masterfile!$J$3,1,IF(I6&lt;masterfile!$J$4,2,IF(I6&lt;masterfile!$J$5,3,IF(I6&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="3">
+        <v>39</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="7">
         <v>0.01</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="2">
         <f>+IF(O6&lt;masterfile!$B$3,1,IF(O6&lt;masterfile!$B$4,2,IF(O6&lt;masterfile!$B$5,3,IF(O6&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="6">
         <f>+G6</f>
         <v>15000</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="2">
         <f>+IF(Q6&lt;masterfile!$J$3,1,IF(Q6&lt;masterfile!$J$4,2,IF(Q6&lt;masterfile!$J$5,3,IF(Q6&lt;masterfile!$J$6,4,5))))</f>
         <v>5</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="6">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="2">
         <f>+IF(S6&lt;masterfile!$J$3,1,IF(S6&lt;masterfile!$J$4,2,IF(S6&lt;masterfile!$J$5,3,IF(S6&lt;masterfile!$J$6,4,5))))</f>
         <v>3</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>31</v>
+      <c r="V6" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="W6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="60">
+    <row r="7" ht="43.2" spans="1:24">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1">
         <v>0.1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="2">
         <f>+IF(E7&lt;masterfile!$B$3,1,IF(E7&lt;masterfile!$B$4,2,IF(E7&lt;masterfile!$B$5,3,IF(E7&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>1000</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="2">
         <f>+IF(I7&lt;masterfile!$J$3,1,IF(I7&lt;masterfile!$J$4,2,IF(I7&lt;masterfile!$J$5,3,IF(I7&lt;masterfile!$J$6,4,5))))</f>
         <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="3">
+        <v>39</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="7">
         <v>0.01</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="2">
         <f>+IF(O7&lt;masterfile!$B$3,1,IF(O7&lt;masterfile!$B$4,2,IF(O7&lt;masterfile!$B$5,3,IF(O7&lt;masterfile!$B$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="6">
         <f>+G7/10</f>
         <v>100</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="2">
         <f>+IF(Q7&lt;masterfile!$J$3,1,IF(Q7&lt;masterfile!$J$4,2,IF(Q7&lt;masterfile!$J$5,3,IF(Q7&lt;masterfile!$J$6,4,5))))</f>
         <v>2</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="2">
         <f>+IF(S7&lt;masterfile!$J$3,1,IF(S7&lt;masterfile!$J$4,2,IF(S7&lt;masterfile!$J$5,3,IF(S7&lt;masterfile!$J$6,4,5))))</f>
         <v>1</v>
       </c>
-      <c r="V7" s="1"/>
+      <c r="V7" s="4"/>
       <c r="W7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="D8" s="1"/>
+    <row r="8" spans="4:4">
+      <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:25">
-      <c r="D9" s="1"/>
+    <row r="9" spans="4:4">
+      <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H1048576 F1:F1048576 J1:J1048576 P1:P1048576 R1:R1048576 T1:T1048576">
+  <conditionalFormatting sqref="H$1:H$1048576 F$1:F$1048576 J$1:J$1048576 P$1:P$1048576 R$1:R$1048576 T$1:T$1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -6572,12 +4817,13 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7DF696E-5339-4333-8106-3E278B07355B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -6587,59 +4833,59 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>0.2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <v>50</v>
@@ -6648,27 +4894,27 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>0.4</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="J4">
         <v>150</v>
@@ -6677,27 +4923,27 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>0.6</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="J5">
         <v>250</v>
@@ -6706,27 +4952,27 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>0.8</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="J6">
         <v>450</v>
@@ -6735,27 +4981,27 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J7">
         <v>750</v>
@@ -6764,28 +5010,29 @@
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="14:14">
       <c r="N8" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="14:14">
       <c r="N9" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="14:14">
       <c r="N10" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>